--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3729432.938057854</v>
+        <v>3727037.282052672</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454613</v>
+        <v>7599947.162454614</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.7891134897426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.24425194833888</v>
       </c>
       <c r="T4" t="n">
-        <v>4.78791446330764</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>136.259788558038</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.58147116589437</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186934</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
         <v>19.80516901555391</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.29204363825422</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,7 +1108,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.716122295717605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>113.350066960109</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>42.17013566839793</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>111.3450520188909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>58.2222089526128</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428166</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.214085525555</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="F2" t="n">
-        <v>64.2117125905411</v>
+        <v>875.1587762353529</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272275</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073764</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872682</v>
+        <v>287.6947354520153</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054602</v>
+        <v>525.3175166702048</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1166.340726290099</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698649</v>
+        <v>1471.815832525682</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2077.249136779527</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068628</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2364.953257565488</v>
+        <v>925.3036175845684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1974.813925589677</v>
+        <v>925.3036175845684</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>173.7995747938281</v>
       </c>
       <c r="K3" t="n">
-        <v>282.3826491045401</v>
+        <v>295.2226670641057</v>
       </c>
       <c r="L3" t="n">
-        <v>859.1054642077956</v>
+        <v>871.9454821673594</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703283</v>
+        <v>1512.968691787254</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136617</v>
+        <v>1798.302562220584</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2037.107513972041</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2524.714615879287</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.5809402873209</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="C4" t="n">
-        <v>666.644757359414</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D4" t="n">
-        <v>666.644757359414</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
-        <v>518.7316637770209</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1148.851085118379</v>
       </c>
       <c r="T4" t="n">
-        <v>1306.366032125459</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.229405117561</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="V4" t="n">
-        <v>1017.229405117561</v>
+        <v>669.7554376879305</v>
       </c>
       <c r="W4" t="n">
-        <v>1017.229405117561</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="X4" t="n">
-        <v>1017.229405117561</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.229405117561</v>
+        <v>380.3382676509698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1142.55613329041</v>
+        <v>631.7791126460334</v>
       </c>
       <c r="C5" t="n">
-        <v>773.593616349998</v>
+        <v>494.1429625874091</v>
       </c>
       <c r="D5" t="n">
-        <v>415.3279177432475</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="E5" t="n">
-        <v>415.3279177432475</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2134.752698217161</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1781.984042947047</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.695465266221</v>
+        <v>1408.518284685967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1142.55613329041</v>
+        <v>1018.378952710155</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.115382809621</v>
       </c>
       <c r="K6" t="n">
-        <v>301.946747225829</v>
+        <v>426.7768722128338</v>
       </c>
       <c r="L6" t="n">
-        <v>942.969956845723</v>
+        <v>724.0888213291487</v>
       </c>
       <c r="M6" t="n">
-        <v>1309.275846338048</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1699.685407663791</v>
+        <v>1652.830557277515</v>
       </c>
       <c r="O6" t="n">
-        <v>2034.614088379322</v>
+        <v>1987.759237993046</v>
       </c>
       <c r="P6" t="n">
-        <v>2284.090816244341</v>
+        <v>2237.235965858065</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.6028964031232</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>346.6028964031232</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6028964031232</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121974</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225447</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317426</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P7" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159848</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1227.599429701829</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>938.4816527122273</v>
       </c>
       <c r="V7" t="n">
-        <v>870.7935792529673</v>
+        <v>683.7971645063404</v>
       </c>
       <c r="W7" t="n">
-        <v>581.3764092160068</v>
+        <v>394.3799944693798</v>
       </c>
       <c r="X7" t="n">
-        <v>353.3868583179894</v>
+        <v>394.3799944693798</v>
       </c>
       <c r="Y7" t="n">
-        <v>346.6028964031232</v>
+        <v>394.3799944693798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1618.750810675541</v>
+        <v>912.462512293034</v>
       </c>
       <c r="C8" t="n">
-        <v>1618.750810675541</v>
+        <v>912.462512293034</v>
       </c>
       <c r="D8" t="n">
-        <v>1260.48511206879</v>
+        <v>554.1968136862836</v>
       </c>
       <c r="E8" t="n">
-        <v>874.6968594705459</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>463.7109546809383</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
         <v>421.1148580461929</v>
@@ -4799,55 +4799,55 @@
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019559</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739662</v>
+        <v>1672.528110618236</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.350650739662</v>
+        <v>1672.528110618236</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.350650739662</v>
+        <v>1299.062352357156</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.350650739662</v>
+        <v>1299.062352357156</v>
       </c>
     </row>
     <row r="9">
@@ -4866,10 +4866,10 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
@@ -4878,28 +4878,28 @@
         <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>563.7673318682819</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>861.0792809845967</v>
       </c>
       <c r="M9" t="n">
-        <v>1139.219060081369</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1529.628621407111</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O9" t="n">
-        <v>2170.651831027005</v>
+        <v>1962.675316168514</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
         <v>2536.977948259489</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121974</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225447</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317426</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P10" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1544.862307910905</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916874</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452886</v>
+        <v>1125.478067458855</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463284</v>
+        <v>836.3602904692532</v>
       </c>
       <c r="V10" t="n">
-        <v>778.1254682573971</v>
+        <v>581.6758022633663</v>
       </c>
       <c r="W10" t="n">
-        <v>665.6557187433658</v>
+        <v>292.2586322264057</v>
       </c>
       <c r="X10" t="n">
-        <v>665.6557187433658</v>
+        <v>233.4483201530595</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.6557187433658</v>
+        <v>233.4483201530595</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,19 +5419,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6078,16 +6078,16 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079761</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942366</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>333.6536211487008</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159829</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.660800650382</v>
       </c>
       <c r="K3" t="n">
-        <v>84.69108553970739</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>173.7639243740385</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.7491560325406</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,25 +8532,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>175.4085598453531</v>
+        <v>10.0524279296144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194223</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690483.089478737</v>
+        <v>690483.0894787376</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>667476.8237828838</v>
+        <v>667476.8237828837</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>667476.8237828838</v>
+        <v>667476.8237828837</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055053</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898964</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169497</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695074</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695036</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695085</v>
+        <v>6287.480531695058</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164798</v>
+        <v>-408824.1682164768</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.4774944192</v>
+        <v>384677.4774944151</v>
       </c>
       <c r="D6" t="n">
         <v>557441.8372843117</v>
       </c>
       <c r="E6" t="n">
-        <v>158490.3916041531</v>
+        <v>158455.6536787174</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.259349904</v>
+        <v>659344.521424468</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244678</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.521424468</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499037</v>
+        <v>659344.521424468</v>
       </c>
       <c r="J6" t="n">
-        <v>489965.2425238558</v>
+        <v>489930.5045984198</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.521424468</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499037</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="M6" t="n">
-        <v>528494.8024456686</v>
+        <v>528460.0645202332</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.2593499036</v>
+        <v>659344.5214244676</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.521424468</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499038</v>
+        <v>659344.521424468</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522382</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.9664944694686</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.9419871887264</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>156.2032724229627</v>
       </c>
       <c r="T4" t="n">
-        <v>217.3791331690087</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>229.0131032129696</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>359.2945745758171</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>156.5399365436831</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.8685310563772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>268.5803031121528</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3548877134714</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>175.1779463177</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4874464364244</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.000164850436061e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,7 +31358,7 @@
         <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
         <v>69.59146383586116</v>
@@ -31373,19 +31373,19 @@
         <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
         <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
@@ -31437,7 +31437,7 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
         <v>50.95981541425717</v>
@@ -31452,13 +31452,13 @@
         <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984513</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31610,19 +31610,19 @@
         <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
@@ -31631,7 +31631,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31674,10 +31674,10 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,16 +31686,16 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N10" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984513</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250717</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241332</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692753</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>611.5487921756015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>123.2320398697054</v>
       </c>
       <c r="K3" t="n">
-        <v>207.3406736915044</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840947</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407382</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>492.5324261689353</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>65.93752551686856</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
         <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321225</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>568.1170166222633</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>280.7788422623029</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>545.4145088275001</v>
+        <v>380.0583769117615</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352465</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>25.33729477225508</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N10" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417385</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
